--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-0/1_recruit_adv.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-0/1_recruit_adv.xlsx
@@ -80,7 +80,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] However, the fact that you’ve retained your basic survival instincts means that you won’t be a waste of the effort that Amiya and the other Operators put in to save you.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] However, the fact that you've retained your basic survival instincts means that you won't be a waste of the effort that Amiya and the other Operators put in to save you.
 </t>
   </si>
   <si>
@@ -88,11 +88,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] If you want to survive, you must first increase Rhodes Island’s roster.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] There are quite a few files here, and I'm certain some of those are capable of becoming our new partners. Go through the files and select someone you’d like to recruit.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] If you want to survive, you must first increase Rhodes Island's roster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] There are quite a few files here, and I'm certain some of those are capable of becoming our new partners. Go through the files and select someone you'd like to recruit.
 </t>
   </si>
   <si>
